--- a/test/result/no-attribute.xlsx
+++ b/test/result/no-attribute.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1804140816149942muw3339144ld"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1804140829253583efv3uwmuzc7v"/>
   </sheets>
 </workbook>
 </file>

--- a/test/result/no-attribute.xlsx
+++ b/test/result/no-attribute.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1804140829253583efv3uwmuzc7v"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1804140842237863etb5qf6u90ea"/>
   </sheets>
 </workbook>
 </file>
@@ -37,6 +37,27 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts>
     <font/>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
   </fonts>
   <fills>
     <fill>
@@ -148,13 +169,13 @@
   </cellStyleXfs>
   <cellXfs>
     <xf/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
 </styleSheet>
 </file>
